--- a/planning/ProjectPlan_Week03_A4.xlsx
+++ b/planning/ProjectPlan_Week03_A4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\BuiBui's Space\Learning Material\Degree Y3S1\AI Project Management\AIPM-A4\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6608AA00-593A-408A-AEF2-F90F4202AA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41541F97-2140-400C-949E-7894721F090A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectPlan_Week03" sheetId="1" r:id="rId1"/>
@@ -814,7 +814,7 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.796875" customWidth="1"/>
     <col min="2" max="2" width="24.796875" customWidth="1"/>
@@ -831,7 +831,7 @@
     <col min="16" max="18" width="32.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -887,7 +887,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -940,7 +940,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -993,7 +993,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1330,13 +1330,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.796875" customWidth="1"/>
     <col min="2" max="2" width="40.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -1372,11 +1372,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D958F6EF-C817-4061-953A-93C56B660F33}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:R17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="8.8984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2291,7 +2294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D2370C-56E8-4562-AB81-A656A9A155F3}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>

--- a/planning/ProjectPlan_Week03_A4.xlsx
+++ b/planning/ProjectPlan_Week03_A4.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\BuiBui's Space\Learning Material\Degree Y3S1\AI Project Management\AIPM-A4\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41541F97-2140-400C-949E-7894721F090A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80111646-AC8B-4F26-AF91-190C2B9FE09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectPlan_Week03" sheetId="1" r:id="rId1"/>
     <sheet name="ProjectPlan_Week03 (Plan name)" sheetId="2" r:id="rId2"/>
     <sheet name="WBS_Week04" sheetId="4" r:id="rId3"/>
     <sheet name="WBS_Week04 (Plan name)" sheetId="5" r:id="rId4"/>
+    <sheet name="Cost &amp; Resources_Week05" sheetId="7" r:id="rId5"/>
+    <sheet name="Week05 (Plan name)" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ProjectPlan_Week03!$A$1:$R$9</definedName>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="167">
   <si>
     <t>Task ID</t>
   </si>
@@ -432,6 +434,174 @@
   </si>
   <si>
     <t>BfMgSHat3k64ec5bX5Np-cgAFmHP</t>
+  </si>
+  <si>
+    <t>9lFPfTnDg0CuNlOzUzMi6cgAPWJF</t>
+  </si>
+  <si>
+    <t>Data Preparation</t>
+  </si>
+  <si>
+    <t>uF5cOiZSq0CpFcR2AdfA-sgACd1M</t>
+  </si>
+  <si>
+    <t>PwlZ5070QkOYO6w1aeX5EsgAMmNa</t>
+  </si>
+  <si>
+    <t>Model Development</t>
+  </si>
+  <si>
+    <t>0YA5cgPbCECPsn1gGfKutMgACGpc</t>
+  </si>
+  <si>
+    <t>Reporting &amp; Presentation</t>
+  </si>
+  <si>
+    <t>kcSd7bYMm0yHcptPdWpCLsgAMMWK</t>
+  </si>
+  <si>
+    <t>gtbtsYgfqkmjIZciGCZg6sgAH4AF</t>
+  </si>
+  <si>
+    <t>System Implementation</t>
+  </si>
+  <si>
+    <t>j9RwoZFuIUuRZLW9IyQo_cgAL-Gb</t>
+  </si>
+  <si>
+    <t>Presentation preparation</t>
+  </si>
+  <si>
+    <t>Week 05 – Cost &amp; Resources</t>
+  </si>
+  <si>
+    <t>6lOJBraOMU2Y3B7J0O-ZhsgAH4ky</t>
+  </si>
+  <si>
+    <t>Build task management API</t>
+  </si>
+  <si>
+    <t>Resource Type: Software_x000D_
+_x000D_
+Resource Name: FastAPI, Supabase_x000D_
+_x000D_
+Quantity/Hours: -_x000D_
+_x000D_
+Description: Implement CRUD operations for tasks and user management</t>
+  </si>
+  <si>
+    <t>Design database schema</t>
+  </si>
+  <si>
+    <t>Resource Type: Human_x000D_
+_x000D_
+Resource Name: Backend Developer_x000D_
+_x000D_
+Quantity/Hours: 6 hrs_x000D_
+_x000D_
+Description: Create PostgreSQL tables for users, tasks, and priorities</t>
+  </si>
+  <si>
+    <t>Connect chat interface</t>
+  </si>
+  <si>
+    <t>Resource Type: Software_x000D_
+_x000D_
+Resource Name: Streamlit, Telegram API_x000D_
+_x000D_
+Quantity/Hours: -_x000D_
+_x000D_
+Description: Enable task interaction via Streamlit web app and Telegram bot</t>
+  </si>
+  <si>
+    <t>Prepare final documentation</t>
+  </si>
+  <si>
+    <t>Resource Type: Human_x000D_
+_x000D_
+Resource Name: Project Team_x000D_
+_x000D_
+Quantity/Hours: 4 hrs_x000D_
+_x000D_
+Description: Write user guide, setup instructions, and system architecture overview</t>
+  </si>
+  <si>
+    <t>Integrate AI task assistant</t>
+  </si>
+  <si>
+    <t>Resource Type: Human_x000D_
+_x000D_
+Resource Name: AI Engineer_x000D_
+_x000D_
+Quantity/Hours: 8 hrs_x000D_
+_x000D_
+Description: Connect GPT model for intelligent task suggestions and chat-based interaction</t>
+  </si>
+  <si>
+    <t>Develop frontend interface</t>
+  </si>
+  <si>
+    <t>Resource Type: Software_x000D_
+_x000D_
+Resource Name: Streamlit_x000D_
+_x000D_
+Quantity/Hours: -_x000D_
+_x000D_
+Description: Build responsive dashboard and chat interface for users</t>
+  </si>
+  <si>
+    <t>Resource Type: Human_x000D_
+_x000D_
+Resource Name: Presenter_x000D_
+_x000D_
+Quantity/Hours: 4 hrs_x000D_
+_x000D_
+Description: Prepare and rehearse presentation slides for final showcase</t>
+  </si>
+  <si>
+    <t>eFHhKYZh0UO83PUoImjhF8gAIbJj</t>
+  </si>
+  <si>
+    <t>Implement calendar synchronization</t>
+  </si>
+  <si>
+    <t>Resource Type: Software_x000D_
+_x000D_
+Resource Name: Google Calendar API_x000D_
+_x000D_
+Quantity/Hours: -_x000D_
+_x000D_
+Description: Sync tasks and reminders with Google Calendar</t>
+  </si>
+  <si>
+    <t>P4X4EWKPH0iPTzq14NpnJcgAEdd9</t>
+  </si>
+  <si>
+    <t>Deploy system to cloud</t>
+  </si>
+  <si>
+    <t>Resource Type: Hardware_x000D_
+_x000D_
+Resource Name: RepoCloud Server_x000D_
+_x000D_
+Quantity/Hours: 3 hrs_x000D_
+_x000D_
+Description: Host backend and Streamlit app on RepoCloud for online access</t>
+  </si>
+  <si>
+    <t>SjWtGJERYUWmEQ0jCYBRn8gAFN8e</t>
+  </si>
+  <si>
+    <t>Testing and debugging</t>
+  </si>
+  <si>
+    <t>Resource Type: Human_x000D_
+_x000D_
+Resource Name: QA Tester_x000D_
+_x000D_
+Quantity/Hours: 6 hrs_x000D_
+_x000D_
+Description: Test task creation, chat responses, and calendar sync for reliability</t>
   </si>
 </sst>
 </file>
@@ -811,7 +981,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1372,12 +1542,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D958F6EF-C817-4061-953A-93C56B660F33}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.8984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2327,4 +2498,693 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9767C5-ACC3-43E2-91BE-ABA7B317FA15}">
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection sqref="A1:R11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.796875" customWidth="1"/>
+    <col min="2" max="2" width="24.796875" customWidth="1"/>
+    <col min="3" max="3" width="18.796875" customWidth="1"/>
+    <col min="4" max="4" width="14.796875" customWidth="1"/>
+    <col min="5" max="5" width="18.796875" customWidth="1"/>
+    <col min="6" max="6" width="24.796875" customWidth="1"/>
+    <col min="7" max="7" width="18.796875" customWidth="1"/>
+    <col min="8" max="10" width="11.796875" customWidth="1"/>
+    <col min="11" max="12" width="8.796875" customWidth="1"/>
+    <col min="13" max="13" width="11.796875" customWidth="1"/>
+    <col min="14" max="14" width="18.796875" customWidth="1"/>
+    <col min="15" max="15" width="8.796875" customWidth="1"/>
+    <col min="16" max="18" width="32.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>29</v>
+      </c>
+      <c r="R11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA098234-68F1-46DD-8335-E6F59E6E06D7}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.796875" customWidth="1"/>
+    <col min="2" max="2" width="40.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/planning/ProjectPlan_Week03_A4.xlsx
+++ b/planning/ProjectPlan_Week03_A4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\BuiBui's Space\Learning Material\Degree Y3S1\AI Project Management\AIPM-A4\planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alici\Downloads\BAIX Y3S1\AI Project Management\AIPM-A4\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80111646-AC8B-4F26-AF91-190C2B9FE09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A525BB97-8189-4F32-A53F-D969FD125A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectPlan_Week03" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="168">
   <si>
     <t>Task ID</t>
   </si>
@@ -602,6 +602,9 @@
 Quantity/Hours: 6 hrs_x000D_
 _x000D_
 Description: Test task creation, chat responses, and calendar sync for reliability</t>
+  </si>
+  <si>
+    <t>Estimated Cost (RM)</t>
   </si>
 </sst>
 </file>
@@ -984,24 +987,24 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.796875" customWidth="1"/>
-    <col min="2" max="2" width="24.796875" customWidth="1"/>
-    <col min="3" max="3" width="18.796875" customWidth="1"/>
-    <col min="4" max="4" width="14.796875" customWidth="1"/>
-    <col min="5" max="5" width="18.796875" customWidth="1"/>
-    <col min="6" max="6" width="24.796875" customWidth="1"/>
-    <col min="7" max="7" width="18.796875" customWidth="1"/>
-    <col min="8" max="10" width="11.796875" customWidth="1"/>
-    <col min="11" max="12" width="8.796875" customWidth="1"/>
-    <col min="13" max="13" width="11.796875" customWidth="1"/>
-    <col min="14" max="14" width="18.796875" customWidth="1"/>
-    <col min="15" max="15" width="8.796875" customWidth="1"/>
-    <col min="16" max="18" width="32.796875" customWidth="1"/>
+    <col min="1" max="1" width="32.78515625" customWidth="1"/>
+    <col min="2" max="2" width="24.78515625" customWidth="1"/>
+    <col min="3" max="3" width="18.78515625" customWidth="1"/>
+    <col min="4" max="4" width="14.78515625" customWidth="1"/>
+    <col min="5" max="5" width="18.78515625" customWidth="1"/>
+    <col min="6" max="6" width="24.78515625" customWidth="1"/>
+    <col min="7" max="7" width="18.78515625" customWidth="1"/>
+    <col min="8" max="10" width="11.78515625" customWidth="1"/>
+    <col min="11" max="12" width="8.78515625" customWidth="1"/>
+    <col min="13" max="13" width="11.78515625" customWidth="1"/>
+    <col min="14" max="14" width="18.78515625" customWidth="1"/>
+    <col min="15" max="15" width="8.78515625" customWidth="1"/>
+    <col min="16" max="18" width="32.78515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1060,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1110,7 +1113,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1216,7 +1219,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1269,7 +1272,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -1322,7 +1325,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1375,7 +1378,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1428,7 +1431,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1500,13 +1503,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.796875" customWidth="1"/>
-    <col min="2" max="2" width="40.796875" customWidth="1"/>
+    <col min="1" max="1" width="20.78515625" customWidth="1"/>
+    <col min="2" max="2" width="40.78515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -1514,7 +1517,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1522,7 +1525,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -1540,19 +1543,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D958F6EF-C817-4061-953A-93C56B660F33}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T39" sqref="T39"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.8984375" customWidth="1"/>
+    <col min="1" max="1" width="8.640625" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.640625" customWidth="1"/>
+    <col min="6" max="6" width="37.0703125" customWidth="1"/>
+    <col min="7" max="7" width="15.92578125" customWidth="1"/>
+    <col min="8" max="8" width="11.78515625" customWidth="1"/>
+    <col min="9" max="10" width="11.2109375" customWidth="1"/>
+    <col min="11" max="11" width="10.92578125" customWidth="1"/>
+    <col min="12" max="12" width="7.0703125" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.0703125" customWidth="1"/>
+    <col min="15" max="15" width="22.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.35546875" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" customWidth="1"/>
+    <col min="18" max="18" width="11.640625" customWidth="1"/>
+    <col min="19" max="19" width="17.35546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1607,8 +1626,11 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -1660,8 +1682,11 @@
       <c r="Q2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -1713,8 +1738,11 @@
       <c r="Q3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -1766,8 +1794,11 @@
       <c r="Q4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -1819,8 +1850,11 @@
       <c r="Q5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -1872,8 +1906,11 @@
       <c r="Q6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -1925,8 +1962,11 @@
       <c r="Q7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -1978,8 +2018,11 @@
       <c r="Q8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S8">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -2031,8 +2074,11 @@
       <c r="Q9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>98</v>
       </c>
@@ -2084,8 +2130,11 @@
       <c r="Q10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -2137,8 +2186,11 @@
       <c r="Q11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -2190,8 +2242,11 @@
       <c r="Q12" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -2243,8 +2298,11 @@
       <c r="Q13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -2296,8 +2354,11 @@
       <c r="Q14" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>117</v>
       </c>
@@ -2349,8 +2410,11 @@
       <c r="Q15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>121</v>
       </c>
@@ -2402,8 +2466,11 @@
       <c r="Q16" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -2454,6 +2521,9 @@
       </c>
       <c r="Q17" t="s">
         <v>29</v>
+      </c>
+      <c r="S17">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2469,9 +2539,9 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -2479,7 +2549,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -2487,7 +2557,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -2504,28 +2574,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9767C5-ACC3-43E2-91BE-ABA7B317FA15}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection sqref="A1:R11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.796875" customWidth="1"/>
-    <col min="2" max="2" width="24.796875" customWidth="1"/>
-    <col min="3" max="3" width="18.796875" customWidth="1"/>
-    <col min="4" max="4" width="14.796875" customWidth="1"/>
-    <col min="5" max="5" width="18.796875" customWidth="1"/>
-    <col min="6" max="6" width="24.796875" customWidth="1"/>
-    <col min="7" max="7" width="18.796875" customWidth="1"/>
-    <col min="8" max="10" width="11.796875" customWidth="1"/>
-    <col min="11" max="12" width="8.796875" customWidth="1"/>
-    <col min="13" max="13" width="11.796875" customWidth="1"/>
-    <col min="14" max="14" width="18.796875" customWidth="1"/>
-    <col min="15" max="15" width="8.796875" customWidth="1"/>
-    <col min="16" max="18" width="32.796875" customWidth="1"/>
+    <col min="1" max="18" width="8.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2581,7 +2639,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -2637,7 +2695,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>133</v>
       </c>
@@ -2693,7 +2751,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>134</v>
       </c>
@@ -2749,7 +2807,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -2805,7 +2863,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>138</v>
       </c>
@@ -2861,7 +2919,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>139</v>
       </c>
@@ -2917,7 +2975,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>141</v>
       </c>
@@ -2973,7 +3031,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>158</v>
       </c>
@@ -3029,7 +3087,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>161</v>
       </c>
@@ -3085,7 +3143,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>164</v>
       </c>
@@ -3150,17 +3208,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA098234-68F1-46DD-8335-E6F59E6E06D7}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.796875" customWidth="1"/>
-    <col min="2" max="2" width="40.796875" customWidth="1"/>
+    <col min="1" max="1" width="20.78515625" customWidth="1"/>
+    <col min="2" max="2" width="40.78515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -3168,7 +3226,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -3176,7 +3234,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>68</v>
       </c>

--- a/planning/ProjectPlan_Week03_A4.xlsx
+++ b/planning/ProjectPlan_Week03_A4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alici\Downloads\BAIX Y3S1\AI Project Management\AIPM-A4\planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\BuiBui's Space\Learning Material\Degree Y3S1\AI Project Management\AIPM-A4\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A525BB97-8189-4F32-A53F-D969FD125A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4A7E2F-1767-4386-B528-C22A1828B4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectPlan_Week03" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="WBS_Week04 (Plan name)" sheetId="5" r:id="rId4"/>
     <sheet name="Cost &amp; Resources_Week05" sheetId="7" r:id="rId5"/>
     <sheet name="Week05 (Plan name)" sheetId="8" r:id="rId6"/>
+    <sheet name="Quality &amp; Risk_Week06" sheetId="9" r:id="rId7"/>
+    <sheet name="Week06 (Plan name)" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ProjectPlan_Week03!$A$1:$R$9</definedName>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="180">
   <si>
     <t>Task ID</t>
   </si>
@@ -605,6 +607,42 @@
   </si>
   <si>
     <t>Estimated Cost (RM)</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>11/20/2025</t>
+  </si>
+  <si>
+    <t>Quality Check 4: Run performance evaluation; intent ≥ 90% accuracy, entity ≥ 85% F1.</t>
+  </si>
+  <si>
+    <t>Quality Check 5: Confirm final model selection before integration.</t>
+  </si>
+  <si>
+    <t>Quality Check 6: Verify model API responses (&lt;2s), stable bot connection, and smooth dashboard loading.</t>
+  </si>
+  <si>
+    <t>Quality Check 2: Ensure dataset correctness, class balance, and removal of duplicates.</t>
+  </si>
+  <si>
+    <t>11/23/2025</t>
+  </si>
+  <si>
+    <t>Quality Check 7: Confirm usability and functionality before preparing final report.</t>
+  </si>
+  <si>
+    <t>10/12/2025</t>
+  </si>
+  <si>
+    <t>Quality Check 1: Validate requirement completeness and clarity before moving to dataset preparation.</t>
+  </si>
+  <si>
+    <t>Quality Check 8: Full documentation review and completeness check.</t>
+  </si>
+  <si>
+    <t>Quality Check 3: Confirm architecture meets functional targets and supports required intents/entities.</t>
   </si>
 </sst>
 </file>
@@ -987,24 +1025,24 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.78515625" customWidth="1"/>
-    <col min="2" max="2" width="24.78515625" customWidth="1"/>
-    <col min="3" max="3" width="18.78515625" customWidth="1"/>
-    <col min="4" max="4" width="14.78515625" customWidth="1"/>
-    <col min="5" max="5" width="18.78515625" customWidth="1"/>
-    <col min="6" max="6" width="24.78515625" customWidth="1"/>
-    <col min="7" max="7" width="18.78515625" customWidth="1"/>
-    <col min="8" max="10" width="11.78515625" customWidth="1"/>
-    <col min="11" max="12" width="8.78515625" customWidth="1"/>
-    <col min="13" max="13" width="11.78515625" customWidth="1"/>
-    <col min="14" max="14" width="18.78515625" customWidth="1"/>
-    <col min="15" max="15" width="8.78515625" customWidth="1"/>
-    <col min="16" max="18" width="32.78515625" customWidth="1"/>
+    <col min="1" max="1" width="32.796875" customWidth="1"/>
+    <col min="2" max="2" width="24.796875" customWidth="1"/>
+    <col min="3" max="3" width="18.796875" customWidth="1"/>
+    <col min="4" max="4" width="14.796875" customWidth="1"/>
+    <col min="5" max="5" width="18.796875" customWidth="1"/>
+    <col min="6" max="6" width="24.796875" customWidth="1"/>
+    <col min="7" max="7" width="18.796875" customWidth="1"/>
+    <col min="8" max="10" width="11.796875" customWidth="1"/>
+    <col min="11" max="12" width="8.796875" customWidth="1"/>
+    <col min="13" max="13" width="11.796875" customWidth="1"/>
+    <col min="14" max="14" width="18.796875" customWidth="1"/>
+    <col min="15" max="15" width="8.796875" customWidth="1"/>
+    <col min="16" max="18" width="32.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1060,7 +1098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1113,7 +1151,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1166,7 +1204,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1219,7 +1257,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1272,7 +1310,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -1325,7 +1363,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1378,7 +1416,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1431,7 +1469,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1503,13 +1541,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.78515625" customWidth="1"/>
-    <col min="2" max="2" width="40.78515625" customWidth="1"/>
+    <col min="1" max="1" width="20.796875" customWidth="1"/>
+    <col min="2" max="2" width="40.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -1517,7 +1555,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1525,7 +1563,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -1545,33 +1583,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D958F6EF-C817-4061-953A-93C56B660F33}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T17" sqref="A1:T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.640625" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.640625" customWidth="1"/>
-    <col min="6" max="6" width="37.0703125" customWidth="1"/>
-    <col min="7" max="7" width="15.92578125" customWidth="1"/>
-    <col min="8" max="8" width="11.78515625" customWidth="1"/>
-    <col min="9" max="10" width="11.2109375" customWidth="1"/>
-    <col min="11" max="11" width="10.92578125" customWidth="1"/>
-    <col min="12" max="12" width="7.0703125" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="14" width="13.0703125" customWidth="1"/>
-    <col min="15" max="15" width="22.85546875" customWidth="1"/>
-    <col min="16" max="16" width="13.35546875" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" customWidth="1"/>
-    <col min="18" max="18" width="11.640625" customWidth="1"/>
-    <col min="19" max="19" width="17.35546875" customWidth="1"/>
+    <col min="1" max="1" width="8.59765625" customWidth="1"/>
+    <col min="2" max="2" width="61.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" customWidth="1"/>
+    <col min="6" max="6" width="37.09765625" customWidth="1"/>
+    <col min="7" max="7" width="15.8984375" customWidth="1"/>
+    <col min="8" max="8" width="11.796875" customWidth="1"/>
+    <col min="9" max="10" width="11.19921875" customWidth="1"/>
+    <col min="11" max="11" width="10.8984375" customWidth="1"/>
+    <col min="12" max="12" width="7.09765625" customWidth="1"/>
+    <col min="13" max="13" width="14.09765625" customWidth="1"/>
+    <col min="14" max="14" width="13.09765625" customWidth="1"/>
+    <col min="15" max="15" width="22.8984375" customWidth="1"/>
+    <col min="16" max="16" width="13.3984375" customWidth="1"/>
+    <col min="17" max="17" width="10.69921875" customWidth="1"/>
+    <col min="18" max="18" width="11.59765625" customWidth="1"/>
+    <col min="19" max="19" width="17.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1630,7 +1668,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -1686,7 +1724,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -1742,7 +1780,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -1798,7 +1836,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -1854,7 +1892,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -1910,7 +1948,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -1966,7 +2004,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -2022,7 +2060,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -2078,7 +2116,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>98</v>
       </c>
@@ -2134,7 +2172,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -2190,7 +2228,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -2246,7 +2284,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -2302,7 +2340,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -2358,7 +2396,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>117</v>
       </c>
@@ -2414,7 +2452,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>121</v>
       </c>
@@ -2470,7 +2508,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -2539,9 +2577,9 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -2549,7 +2587,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -2557,7 +2595,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -2578,12 +2616,12 @@
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="18" width="8.640625" customWidth="1"/>
+    <col min="1" max="18" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2639,7 +2677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -2695,7 +2733,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>133</v>
       </c>
@@ -2751,7 +2789,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>134</v>
       </c>
@@ -2807,7 +2845,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -2863,7 +2901,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>138</v>
       </c>
@@ -2919,7 +2957,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>139</v>
       </c>
@@ -2975,7 +3013,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>141</v>
       </c>
@@ -3031,7 +3069,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>158</v>
       </c>
@@ -3087,7 +3125,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>161</v>
       </c>
@@ -3143,7 +3181,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>164</v>
       </c>
@@ -3212,13 +3250,13 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.78515625" customWidth="1"/>
-    <col min="2" max="2" width="40.78515625" customWidth="1"/>
+    <col min="1" max="1" width="20.796875" customWidth="1"/>
+    <col min="2" max="2" width="40.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -3226,7 +3264,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -3234,12 +3272,1009 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>68</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B588A55-9F9D-4807-B334-C5BD9658907C}">
+  <dimension ref="A1:R17"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.69921875" customWidth="1"/>
+    <col min="2" max="2" width="24.796875" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" customWidth="1"/>
+    <col min="5" max="5" width="8.296875" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" customWidth="1"/>
+    <col min="7" max="7" width="13.69921875" customWidth="1"/>
+    <col min="8" max="10" width="11.796875" customWidth="1"/>
+    <col min="13" max="13" width="10.296875" customWidth="1"/>
+    <col min="14" max="14" width="13.8984375" customWidth="1"/>
+    <col min="16" max="16" width="6.5" customWidth="1"/>
+    <col min="17" max="17" width="9.19921875" customWidth="1"/>
+    <col min="18" max="18" width="32.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>73</v>
+      </c>
+      <c r="R4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>73</v>
+      </c>
+      <c r="R5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>73</v>
+      </c>
+      <c r="R6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>73</v>
+      </c>
+      <c r="R7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" t="s">
+        <v>176</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>73</v>
+      </c>
+      <c r="R11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>73</v>
+      </c>
+      <c r="R15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>73</v>
+      </c>
+      <c r="R16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8B43A4-74F9-427F-BE79-1A2BE2CE9F2C}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
